--- a/football.xlsx
+++ b/football.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:I151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3060,6 +3060,3876 @@
       </c>
       <c r="I61" t="inlineStr"/>
     </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>2020-11-01</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Flamengo</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1-4</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>R19</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Brasileirão 2020</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>2020-10-17</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Grêmio</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>R17</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Brasileirão 2020</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>2020-10-10</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Palmeiras</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0-2</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>R15</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Brasileirão 2020</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>2020-10-07</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>3-0</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Atlético Goianiense</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>R14</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Brasileirão 2020</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>2020-10-04</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Coritiba</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1-1</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>R13</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Brasileirão 2020</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>2020-09-26</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1-1</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>R12</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Brasileirão 2020</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>2020-09-12</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Santos</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2-2</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>R10</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Brasileirão 2020</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>2020-09-09</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1-1</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Red Bull Bragantino</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Brasileirão 2020</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>2020-09-06</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>3-1</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Fluminense</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>R8</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Brasileirão 2020</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>2020-09-03</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Atlético Mineiro</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>3-0</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>R7</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Brasileirão 2020</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>2020-08-30</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2-1</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Corinthians</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Brasileirão 2020</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>2020-08-26</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1-0</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Athletico Paranaense</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>R11</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Brasileirão 2020</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>2020-08-23</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Sport</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0-1</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Brasileirão 2020</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>2020-08-20</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1-1</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Bahia</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>R4</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Brasileirão 2020</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>2020-08-16</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Vasco</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2-1</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>R3</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Brasileirão 2020</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>2020-08-13</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1-0</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Fortaleza</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Brasileirão 2020</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>2019-12-08</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>CSA</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1-2</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>R38</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Brasileirão 2019</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>2019-12-04</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2-1</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>R37</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Brasileirão 2019</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>2019-12-01</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Grêmio</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>3-0</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>R36</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Brasileirão 2019</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>2019-11-28</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1-0</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Vasco</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>R35</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Brasileirão 2019</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>2019-11-24</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Ceará</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1-1</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>R34</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Brasileirão 2019</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>2019-11-16</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Santos</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1-1</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>R33</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Brasileirão 2019</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>2019-11-10</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0-1</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Athletico Paranaense</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>R32</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Brasileirão 2019</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>2019-11-07</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0-2</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Fluminense</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>R31</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Brasileirão 2019</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>2019-11-02</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Chapecoense</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0-3</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>R30</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Brasileirão 2019</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>2019-10-30</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Palmeiras</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>3-0</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>R29</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Brasileirão 2019</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>2019-10-27</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2-0</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Atlético Mineiro</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>R28</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Brasileirão 2019</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>2019-10-20</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1-0</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Avaí</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>R27</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Brasileirão 2019</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>2019-10-16</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Cruzeiro</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1-0</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>R26</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Brasileirão 2019</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>2019-10-13</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1-0</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Corinthians</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>R25</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Brasileirão 2019</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>2019-10-09</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Bahia</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>R24</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Brasileirão 2019</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>2019-10-05</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2-1</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Fortaleza</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>R23</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Brasileirão 2019</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>2019-09-28</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Flamengo</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>R22</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Brasileirão 2019</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>2019-09-25</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0-1</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Goiás</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>R21</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Brasileirão 2019</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>2019-09-21</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Botafogo</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1-2</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>R20</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Brasileirão 2019</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>2019-09-15</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1-1</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>CSA</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>R19</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Brasileirão 2019</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>2019-09-07</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1-0</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>R18</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Brasileirão 2019</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>2019-08-31</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Grêmio</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>R17</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Brasileirão 2019</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>2019-08-25</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Vasco</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2-0</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>R16</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Brasileirão 2019</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>2019-08-21</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Athletico Paranaense</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0-1</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>R13</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Brasileirão 2019</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>2019-08-18</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>1-0</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Ceará</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>R15</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Brasileirão 2019</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>2019-08-10</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>3-2</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Santos</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>R14</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Brasileirão 2019</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>2019-07-27</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Fluminense</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1-2</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>R12</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Brasileirão 2019</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>2019-07-22</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>4-0</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Chapecoense</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>R11</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Brasileirão 2019</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>2019-07-13</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1-1</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Palmeiras</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>R10</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Brasileirão 2019</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>2019-06-13</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Atlético Mineiro</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>1-1</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Brasileirão 2019</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>2019-06-08</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Avaí</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>R8</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Brasileirão 2019</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>2019-06-02</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>1-1</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Cruzeiro</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>R7</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Brasileirão 2019</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>2019-05-26</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Corinthians</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>1-0</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Brasileirão 2019</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>2019-05-19</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Bahia</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Brasileirão 2019</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>2019-05-12</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Fortaleza</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0-1</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>R4</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Brasileirão 2019</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>2019-05-05</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>1-1</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Flamengo</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>R3</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Brasileirão 2019</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>2019-05-01</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Goiás</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>1-2</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Brasileirão 2019</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>2019-04-27</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2-0</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Botafogo</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>R1</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Brasileirão 2019</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>2018-12-02</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Chapecoense</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>1-0</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>R38</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Brasileirão 2018</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>2018-11-26</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Sport</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>R37</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Brasileirão 2018</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>2018-11-22</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Vasco</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2-0</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>R36</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Brasileirão 2018</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>2018-11-18</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>1-0</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Cruzeiro</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>R35</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Brasileirão 2018</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>2018-11-15</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>1-1</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Grêmio</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>R34</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Brasileirão 2018</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>2018-11-10</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Corinthians</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>1-1</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>R33</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>Brasileirão 2018</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>2018-11-04</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2-2</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Flamengo</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>R32</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>Brasileirão 2018</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>2018-10-26</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Vitória</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0-1</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>R31</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Brasileirão 2018</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>2018-10-20</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Atlético Paranaense</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>R30</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Brasileirão 2018</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>2018-10-14</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>3-1</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>R29</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Brasileirão 2018</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>2018-10-06</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0-2</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Palmeiras</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>R28</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>Brasileirão 2018</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>2018-09-30</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Botafogo</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2-2</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>R27</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>Brasileirão 2018</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>2018-09-22</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>1-1</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>América Mineiro</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>R26</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>Brasileirão 2018</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>2018-09-16</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Santos</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>R25</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>Brasileirão 2018</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>2018-09-08</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>1-0</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Bahia</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>R24</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>Brasileirão 2018</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>2018-09-05</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Atlético Mineiro</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>1-0</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>R23</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>Brasileirão 2018</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>2018-09-02</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>1-1</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Fluminense</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>R22</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Brasileirão 2018</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>2018-08-26</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>1-0</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Ceará</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>R21</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>Brasileirão 2018</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>2018-08-22</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Paraná</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>1-1</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>R20</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>Brasileirão 2018</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>2018-08-19</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2-0</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Chapecoense</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>R19</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>Brasileirão 2018</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>2018-08-12</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Sport</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>1-3</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>R18</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>Brasileirão 2018</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>2018-08-05</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2-1</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Vasco</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>R17</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>Brasileirão 2018</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>2018-07-29</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Cruzeiro</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0-2</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>R16</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>Brasileirão 2018</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>2018-07-26</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Grêmio</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2-1</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>R15</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>Brasileirão 2018</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>2018-07-21</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>3-1</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Corinthians</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>R14</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>Brasileirão 2018</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>2018-07-18</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Flamengo</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0-1</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>R13</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>Brasileirão 2018</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>2018-06-12</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>3-0</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Vitória</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>R12</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>Brasileirão 2018</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>2018-06-09</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Atlético Paranaense</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0-1</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>R11</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>Brasileirão 2018</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>2018-06-05</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>R10</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>Brasileirão 2018</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>2018-06-02</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Palmeiras</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>3-1</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>Brasileirão 2018</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>2018-05-30</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>3-2</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Botafogo</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>R8</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>Brasileirão 2018</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>2018-05-27</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>América Mineiro</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>1-3</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>R7</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>Brasileirão 2018</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>2018-05-20</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>1-0</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Santos</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>Brasileirão 2018</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>2018-05-13</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Bahia</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2-2</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>Brasileirão 2018</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>2018-05-05</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2-2</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Atlético Mineiro</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>R4</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>Brasileirão 2018</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>2018-04-29</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Fluminense</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>1-1</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>R3</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>Brasileirão 2018</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
